--- a/data/trans_orig/P32C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7986</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3647</v>
+        <v>3733</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15447</v>
+        <v>15859</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0284485516253126</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0129907085736805</v>
+        <v>0.01329816442007119</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05502717573446914</v>
+        <v>0.05649463338944677</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8169</v>
+        <v>8547</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01312094721297874</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04382093745128968</v>
+        <v>0.0458509940465003</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>10432</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5483</v>
+        <v>5262</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19745</v>
+        <v>19720</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02233177360809184</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01173724690153653</v>
+        <v>0.01126519443136298</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04226950625846022</v>
+        <v>0.04221555212653503</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>272727</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>265266</v>
+        <v>264854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>277066</v>
+        <v>276980</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9715514483746874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9449728242655313</v>
+        <v>0.9435053666105542</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9870092914263195</v>
+        <v>0.9867018355799289</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>194</v>
@@ -836,7 +836,7 @@
         <v>183971</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>178248</v>
+        <v>177870</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>186417</v>
@@ -845,7 +845,7 @@
         <v>0.9868790527870213</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9561790625487104</v>
+        <v>0.9541490059535006</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>456698</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>447385</v>
+        <v>447410</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>461647</v>
+        <v>461868</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9776682263919082</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9577304937415398</v>
+        <v>0.957784447873465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9882627530984635</v>
+        <v>0.988734805568637</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>10884</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4938</v>
+        <v>5565</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19650</v>
+        <v>19390</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02172954494355847</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009859093296812879</v>
+        <v>0.01111071144666645</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03923003236128311</v>
+        <v>0.03871153233649342</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -982,19 +982,19 @@
         <v>3703</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10246</v>
+        <v>9649</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0169670217867178</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004672446897668065</v>
+        <v>0.004656987907725265</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04694120955729098</v>
+        <v>0.04420587478194993</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -1003,19 +1003,19 @@
         <v>14588</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7512</v>
+        <v>8253</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24206</v>
+        <v>25984</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02028406740425612</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01044590811789041</v>
+        <v>0.0114756806284473</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0336576591510299</v>
+        <v>0.03613101717735852</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>490011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>481245</v>
+        <v>481505</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495957</v>
+        <v>495330</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9782704550564415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9607699676387166</v>
+        <v>0.9612884676635065</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9901409067031871</v>
+        <v>0.9888892885533336</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>201</v>
@@ -1053,19 +1053,19 @@
         <v>214573</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>208030</v>
+        <v>208627</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>217256</v>
+        <v>217259</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9830329782132822</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9530587904427089</v>
+        <v>0.9557941252180502</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9953275531023319</v>
+        <v>0.9953430120922747</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>675</v>
@@ -1074,19 +1074,19 @@
         <v>704583</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>694965</v>
+        <v>693187</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>711659</v>
+        <v>710918</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9797159325957439</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9663423408489704</v>
+        <v>0.9638689828226414</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9895540918821095</v>
+        <v>0.9885243193715526</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>2888</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8614</v>
+        <v>7899</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007186605029473603</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002206098924445133</v>
+        <v>0.002159824847466496</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02143797802721644</v>
+        <v>0.01965938242319707</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6171</v>
+        <v>4913</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004556662472029785</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02763299418861082</v>
+        <v>0.02199646885657643</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1220,19 +1220,19 @@
         <v>3905</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>963</v>
+        <v>1015</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9113</v>
+        <v>9987</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006247021284580812</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001540323431922175</v>
+        <v>0.001623785178604431</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01457716401557664</v>
+        <v>0.01597620155074512</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>398902</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>393176</v>
+        <v>393891</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>400904</v>
+        <v>400922</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9928133949705263</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9785620219727835</v>
+        <v>0.9803406175768029</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9977939010755549</v>
+        <v>0.9978401751525335</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>215</v>
@@ -1270,7 +1270,7 @@
         <v>222317</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>217164</v>
+        <v>218422</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>223335</v>
@@ -1279,7 +1279,7 @@
         <v>0.9954433375279702</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9723670058113892</v>
+        <v>0.9780035311434239</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>621220</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>616012</v>
+        <v>615138</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>624162</v>
+        <v>624110</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9937529787154192</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9854228359844233</v>
+        <v>0.9840237984492548</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9984596765680778</v>
+        <v>0.9983762148213956</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>3794</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10518</v>
+        <v>11062</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01210099258885252</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002955997033103435</v>
+        <v>0.002904357573178348</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0335506194356865</v>
+        <v>0.0352845805686547</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5040</v>
+        <v>4487</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006977079263433901</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03471028607401766</v>
+        <v>0.03089831891453044</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1437,19 +1437,19 @@
         <v>4807</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1739</v>
+        <v>1117</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12288</v>
+        <v>12980</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01047899423949235</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003791074924679529</v>
+        <v>0.002434602130755728</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02678799252722762</v>
+        <v>0.02829746318705728</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>309700</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>302976</v>
+        <v>302432</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>312567</v>
+        <v>312584</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9878990074111474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9664493805643135</v>
+        <v>0.9647154194313458</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9970440029668965</v>
+        <v>0.9970956424268216</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>138</v>
@@ -1487,7 +1487,7 @@
         <v>144190</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>140163</v>
+        <v>140716</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>145203</v>
@@ -1496,7 +1496,7 @@
         <v>0.9930229207365661</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9652897139259823</v>
+        <v>0.9691016810854656</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>453890</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>446409</v>
+        <v>445717</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>456958</v>
+        <v>457580</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9895210057605076</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.973212007472772</v>
+        <v>0.9717025368129428</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9962089250753204</v>
+        <v>0.9975653978692443</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>6295</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2643</v>
+        <v>2713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11972</v>
+        <v>12152</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03495355979206162</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01467447663483749</v>
+        <v>0.01506682994417667</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0664795911680192</v>
+        <v>0.06747459699737551</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1649,16 +1649,16 @@
         <v>2641</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11978</v>
+        <v>11988</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02463470587449811</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01033623641303061</v>
+        <v>0.01033634927371353</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04687734373384743</v>
+        <v>0.04691613144453992</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>173797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>168120</v>
+        <v>167940</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>177449</v>
+        <v>177379</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9650464402079384</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9335204088319807</v>
+        <v>0.9325254030026244</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9853255233651624</v>
+        <v>0.9849331700558233</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -1709,7 +1709,7 @@
         <v>249232</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>243549</v>
+        <v>243539</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>252886</v>
@@ -1718,10 +1718,10 @@
         <v>0.9753652941255019</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9531226562661529</v>
+        <v>0.9530838685554602</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9896637635869694</v>
+        <v>0.9896636507262865</v>
       </c>
     </row>
     <row r="18">
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4613</v>
+        <v>3758</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005927642300043953</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03553829331695568</v>
+        <v>0.02894914536426215</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4629</v>
+        <v>3864</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004833176634495688</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02907699607510118</v>
+        <v>0.02427307040733171</v>
       </c>
     </row>
     <row r="20">
@@ -1876,7 +1876,7 @@
         <v>129030</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>125186</v>
+        <v>126041</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>129799</v>
@@ -1885,7 +1885,7 @@
         <v>0.9940723576999561</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9644617066830441</v>
+        <v>0.9710508546357383</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>158422</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>154562</v>
+        <v>155327</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>159191</v>
@@ -1919,7 +1919,7 @@
         <v>0.9951668233655043</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9709230039248987</v>
+        <v>0.9757269295926683</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -2014,19 +2014,19 @@
         <v>2647</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7356</v>
+        <v>7383</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03619140063086021</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01077955124917179</v>
+        <v>0.01092203042211905</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1005841159108253</v>
+        <v>0.1009533830412272</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         <v>2647</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7752</v>
+        <v>7218</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02952110018016107</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008906620161237624</v>
+        <v>0.009117117584310981</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08646211922183737</v>
+        <v>0.08050179355193003</v>
       </c>
     </row>
     <row r="23">
@@ -2077,19 +2077,19 @@
         <v>70488</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>65779</v>
+        <v>65752</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>72347</v>
+        <v>72336</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9638085993691398</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8994158840891751</v>
+        <v>0.8990466169587745</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9892204487508283</v>
+        <v>0.989077969577881</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -2111,19 +2111,19 @@
         <v>87013</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>81908</v>
+        <v>82442</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>88861</v>
+        <v>88843</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9704788998198389</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9135378807781624</v>
+        <v>0.9194982064480701</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9910933798387623</v>
+        <v>0.990882882415689</v>
       </c>
     </row>
     <row r="24">
@@ -2215,19 +2215,19 @@
         <v>35262</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24095</v>
+        <v>24476</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48903</v>
+        <v>48368</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01875736408598966</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01281693896424134</v>
+        <v>0.01301971826147105</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02601311303635077</v>
+        <v>0.02572882220392149</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2236,19 +2236,19 @@
         <v>8180</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3519</v>
+        <v>3491</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16576</v>
+        <v>16487</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009144158666681085</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003933230639320762</v>
+        <v>0.003902136191402368</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0185296062380959</v>
+        <v>0.0184296980178311</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -2257,19 +2257,19 @@
         <v>43443</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30971</v>
+        <v>32308</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>57702</v>
+        <v>59383</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01565777280650212</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01116283748078772</v>
+        <v>0.01164475649040785</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02079714728170491</v>
+        <v>0.02140319273544139</v>
       </c>
     </row>
     <row r="26">
@@ -2286,19 +2286,19 @@
         <v>1844656</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1831015</v>
+        <v>1831550</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1855823</v>
+        <v>1855442</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9812426359140104</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9739868869636493</v>
+        <v>0.9742711777960786</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.987183061035759</v>
+        <v>0.9869802817385293</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>867</v>
@@ -2307,19 +2307,19 @@
         <v>886404</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>878008</v>
+        <v>878097</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>891065</v>
+        <v>891093</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9908558413333189</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9814703937619041</v>
+        <v>0.981570301982169</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9960667693606793</v>
+        <v>0.9960978638085977</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2677</v>
@@ -2328,19 +2328,19 @@
         <v>2731060</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2716801</v>
+        <v>2715120</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2743532</v>
+        <v>2742195</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9843422271934978</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9792028527182949</v>
+        <v>0.9785968072645586</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9888371625192122</v>
+        <v>0.9883552435095921</v>
       </c>
     </row>
     <row r="27">
@@ -2675,19 +2675,19 @@
         <v>6503</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2667</v>
+        <v>2562</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13176</v>
+        <v>13068</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02334630189047248</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009574436511528199</v>
+        <v>0.009197057012358316</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0473056822347735</v>
+        <v>0.04691508994963008</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4437</v>
+        <v>5124</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00560440758738043</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02457514200516418</v>
+        <v>0.02838034263753565</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2717,19 +2717,19 @@
         <v>7515</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3321</v>
+        <v>3413</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14433</v>
+        <v>14094</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01636849668610835</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007232883882636072</v>
+        <v>0.007434557456017472</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03143774837665303</v>
+        <v>0.0307001651723273</v>
       </c>
     </row>
     <row r="5">
@@ -2746,19 +2746,19 @@
         <v>272036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>265363</v>
+        <v>265471</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>275872</v>
+        <v>275977</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9766536981095275</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9526943177652265</v>
+        <v>0.9530849100503711</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9904255634884718</v>
+        <v>0.9908029429876418</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>174</v>
@@ -2767,7 +2767,7 @@
         <v>179550</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>176125</v>
+        <v>175438</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>180562</v>
@@ -2776,7 +2776,7 @@
         <v>0.9943955924126195</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9754248579948362</v>
+        <v>0.9716196573624644</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2788,19 +2788,19 @@
         <v>451586</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>444668</v>
+        <v>445007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>455780</v>
+        <v>455688</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9836315033138916</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9685622516233469</v>
+        <v>0.9692998348276727</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9927671161173639</v>
+        <v>0.9925654425439826</v>
       </c>
     </row>
     <row r="6">
@@ -2892,19 +2892,19 @@
         <v>8237</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3678</v>
+        <v>3619</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16493</v>
+        <v>15550</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01771696155042035</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007910620526304729</v>
+        <v>0.007784758961397675</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03547446273628977</v>
+        <v>0.03344694102726486</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2926,19 +2926,19 @@
         <v>8237</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3647</v>
+        <v>3713</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16380</v>
+        <v>15918</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01216051943309218</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005383597856161608</v>
+        <v>0.005481153380242085</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02418172400975221</v>
+        <v>0.02350030975909136</v>
       </c>
     </row>
     <row r="8">
@@ -2955,19 +2955,19 @@
         <v>456691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>448435</v>
+        <v>449378</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>461250</v>
+        <v>461309</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9822830384495796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9645255372637102</v>
+        <v>0.9665530589727351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9920893794736952</v>
+        <v>0.9922152410386024</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>201</v>
@@ -2989,19 +2989,19 @@
         <v>669128</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>660985</v>
+        <v>661447</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>673718</v>
+        <v>673652</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9878394805669078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9758182759902478</v>
+        <v>0.9764996902409085</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9946164021438384</v>
+        <v>0.9945188466197579</v>
       </c>
     </row>
     <row r="9">
@@ -3093,19 +3093,19 @@
         <v>10830</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5523</v>
+        <v>5474</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19166</v>
+        <v>18876</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02535067336484097</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01292892535003207</v>
+        <v>0.01281406554358165</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04486427939367827</v>
+        <v>0.04418542992889374</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3127,19 +3127,19 @@
         <v>10830</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5656</v>
+        <v>5357</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19600</v>
+        <v>19045</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01618518748868322</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008453347530918483</v>
+        <v>0.008005950684526187</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02929155205528739</v>
+        <v>0.02846213447531631</v>
       </c>
     </row>
     <row r="11">
@@ -3156,19 +3156,19 @@
         <v>416371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>408035</v>
+        <v>408325</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>421678</v>
+        <v>421727</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.974649326635159</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9551357206063218</v>
+        <v>0.9558145700711064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9870710746499679</v>
+        <v>0.9871859344564184</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>222</v>
@@ -3190,19 +3190,19 @@
         <v>658290</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>649520</v>
+        <v>650075</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>663464</v>
+        <v>663763</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9838148125113167</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9707084479447121</v>
+        <v>0.9715378655246835</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9915466524690816</v>
+        <v>0.9919940493154737</v>
       </c>
     </row>
     <row r="12">
@@ -3294,19 +3294,19 @@
         <v>9636</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4247</v>
+        <v>4291</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18089</v>
+        <v>20030</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02445117158525641</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01077724982740823</v>
+        <v>0.01088805382665429</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04589837758115065</v>
+        <v>0.050822864259451</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3328,19 +3328,19 @@
         <v>9636</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4309</v>
+        <v>4292</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19577</v>
+        <v>19229</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01586239964788803</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007092398719686082</v>
+        <v>0.007064382124186456</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03222574420574568</v>
+        <v>0.03165340065984664</v>
       </c>
     </row>
     <row r="14">
@@ -3357,19 +3357,19 @@
         <v>384472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>376019</v>
+        <v>374078</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>389861</v>
+        <v>389817</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9755488284147436</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9541016224188493</v>
+        <v>0.949177135740549</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9892227501725918</v>
+        <v>0.9891119461733456</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>187</v>
@@ -3391,19 +3391,19 @@
         <v>597863</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>587922</v>
+        <v>588270</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>603190</v>
+        <v>603207</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.984137600352112</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9677742557942557</v>
+        <v>0.9683465993401541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.992907601280314</v>
+        <v>0.9929356178758136</v>
       </c>
     </row>
     <row r="15">
@@ -3495,19 +3495,19 @@
         <v>2621</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7955</v>
+        <v>7054</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01147028956048446</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003499301139772585</v>
+        <v>0.003485825545375951</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03481542416617413</v>
+        <v>0.03087276984922705</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6253</v>
+        <v>7003</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01805770934515124</v>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05573206362892077</v>
+        <v>0.06242037976916302</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3537,19 +3537,19 @@
         <v>4647</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1631</v>
+        <v>1768</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9706</v>
+        <v>10141</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01363972937265611</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004788153024168334</v>
+        <v>0.005189146903404138</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0284898284076593</v>
+        <v>0.02976882988419012</v>
       </c>
     </row>
     <row r="17">
@@ -3566,19 +3566,19 @@
         <v>225857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>220523</v>
+        <v>221424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>227678</v>
+        <v>227682</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9885297104395155</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9651845758338259</v>
+        <v>0.969127230150773</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9965006988602274</v>
+        <v>0.9965141744546241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>97</v>
@@ -3587,7 +3587,7 @@
         <v>110168</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>105941</v>
+        <v>105191</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>112194</v>
@@ -3596,7 +3596,7 @@
         <v>0.9819422906548487</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9442679363710792</v>
+        <v>0.9375796202308376</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3608,19 +3608,19 @@
         <v>336024</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>330965</v>
+        <v>330530</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>339040</v>
+        <v>338903</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9863602706273439</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9715101715923408</v>
+        <v>0.9702311701158104</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9952118469758316</v>
+        <v>0.9948108530965959</v>
       </c>
     </row>
     <row r="18">
@@ -3712,19 +3712,19 @@
         <v>3093</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8654</v>
+        <v>8473</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02015566471202952</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006281155690027478</v>
+        <v>0.006313698452990808</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05639637609581777</v>
+        <v>0.05521678636261415</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>3093</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10263</v>
+        <v>8084</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01478949357004789</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004716006526701525</v>
+        <v>0.004681608211384798</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04907393114997134</v>
+        <v>0.03865769198943909</v>
       </c>
     </row>
     <row r="20">
@@ -3775,19 +3775,19 @@
         <v>150358</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>144797</v>
+        <v>144978</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>152487</v>
+        <v>152482</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9798443352879704</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9436036239041807</v>
+        <v>0.9447832136373857</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9937188443099725</v>
+        <v>0.9936863015470092</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -3809,19 +3809,19 @@
         <v>206035</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>198865</v>
+        <v>201044</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>208142</v>
+        <v>208149</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9852105064299521</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9509260688500283</v>
+        <v>0.961342308010561</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9952839934732985</v>
+        <v>0.9953183917886151</v>
       </c>
     </row>
     <row r="21">
@@ -4082,19 +4082,19 @@
         <v>40920</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28832</v>
+        <v>29276</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55439</v>
+        <v>57648</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02013536155298443</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0141874989351376</v>
+        <v>0.01440559607124159</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02727992250659002</v>
+        <v>0.02836668477726434</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4103,19 +4103,19 @@
         <v>3038</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8157</v>
+        <v>8976</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002919519331120639</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0009630792345362535</v>
+        <v>0.0009595856740596809</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007838732907150991</v>
+        <v>0.008626124392514744</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -4124,19 +4124,19 @@
         <v>43958</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31946</v>
+        <v>31955</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59102</v>
+        <v>58380</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01430549215731938</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01039647863444479</v>
+        <v>0.01039946988470924</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01923393796227092</v>
+        <v>0.01899899703076095</v>
       </c>
     </row>
     <row r="26">
@@ -4153,19 +4153,19 @@
         <v>1991315</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1976796</v>
+        <v>1974587</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2003403</v>
+        <v>2002959</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9798646384470155</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9727200774934102</v>
+        <v>0.9716333152227358</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9858125010648626</v>
+        <v>0.9855944039287586</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>953</v>
@@ -4174,19 +4174,19 @@
         <v>1037511</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1032392</v>
+        <v>1031573</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1039547</v>
+        <v>1039551</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9970804806688793</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.992161267092849</v>
+        <v>0.9913738756074865</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9990369207654638</v>
+        <v>0.9990404143259403</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2824</v>
@@ -4195,19 +4195,19 @@
         <v>3028827</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3013683</v>
+        <v>3014405</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3040839</v>
+        <v>3040830</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9856945078426806</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9807660620377292</v>
+        <v>0.9810010029692391</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9896035213655553</v>
+        <v>0.9896005301152908</v>
       </c>
     </row>
     <row r="27">
@@ -4542,19 +4542,19 @@
         <v>3374</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9070</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01346506063953009</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003851511282117874</v>
+        <v>0.003888561874841691</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03620083133687425</v>
+        <v>0.04146895566505566</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4576,19 +4576,19 @@
         <v>3374</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9155</v>
+        <v>9004</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008085137141800643</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002303948179467082</v>
+        <v>0.002330390444783183</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02193981291125077</v>
+        <v>0.02157941106972346</v>
       </c>
     </row>
     <row r="5">
@@ -4605,19 +4605,19 @@
         <v>247176</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>241480</v>
+        <v>240160</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>249585</v>
+        <v>249576</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9865349393604699</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9637991686631256</v>
+        <v>0.9585310443349443</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9961484887178822</v>
+        <v>0.9961114381251582</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>171</v>
@@ -4639,19 +4639,19 @@
         <v>413893</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>408112</v>
+        <v>408263</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>416306</v>
+        <v>416295</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9919148628581994</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9780601870887491</v>
+        <v>0.9784205889302765</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9976960518205329</v>
+        <v>0.9976696095552169</v>
       </c>
     </row>
     <row r="6">
@@ -4743,19 +4743,19 @@
         <v>7097</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3022</v>
+        <v>3036</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14245</v>
+        <v>13401</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01953714927648335</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008317667035856001</v>
+        <v>0.008358002179159449</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03921201851562275</v>
+        <v>0.03688809080486685</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4764,19 +4764,19 @@
         <v>3029</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8173</v>
+        <v>7380</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01358257776372095</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004109196906764772</v>
+        <v>0.00416111928944856</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03664552665995669</v>
+        <v>0.03309060851631905</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -4785,19 +4785,19 @@
         <v>10127</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5048</v>
+        <v>5179</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18168</v>
+        <v>18510</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01727205477572629</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008610054556712991</v>
+        <v>0.008832361738376687</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03098665638421567</v>
+        <v>0.03157027185010731</v>
       </c>
     </row>
     <row r="8">
@@ -4814,19 +4814,19 @@
         <v>356183</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>349035</v>
+        <v>349879</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>360258</v>
+        <v>360244</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9804628507235167</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9607879814843774</v>
+        <v>0.9631119091951331</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.991682332964144</v>
+        <v>0.9916419978208405</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>225</v>
@@ -4835,19 +4835,19 @@
         <v>220001</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>214857</v>
+        <v>215650</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>222114</v>
+        <v>222102</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.986417422236279</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9633544733400432</v>
+        <v>0.9669093914836809</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9958908030932352</v>
+        <v>0.9958388807105515</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>569</v>
@@ -4856,19 +4856,19 @@
         <v>576183</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>568142</v>
+        <v>567800</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>581262</v>
+        <v>581131</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9827279452242738</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9690133436157844</v>
+        <v>0.9684297281498936</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.991389945443287</v>
+        <v>0.9911676382616235</v>
       </c>
     </row>
     <row r="9">
@@ -4960,19 +4960,19 @@
         <v>4421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>932</v>
+        <v>1598</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10373</v>
+        <v>11306</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01034284362607192</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002179854102929903</v>
+        <v>0.003739625842450913</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02426909349428678</v>
+        <v>0.02645242654643296</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4994,19 +4994,19 @@
         <v>4421</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1604</v>
+        <v>1593</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11592</v>
+        <v>11404</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006553418819231493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00237730343156243</v>
+        <v>0.002360945593084087</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01718501862165436</v>
+        <v>0.01690640241891912</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>422980</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>417028</v>
+        <v>416095</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>426469</v>
+        <v>425803</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.989657156373928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9757309065057131</v>
+        <v>0.9735475734535667</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.99782014589707</v>
+        <v>0.9962603741575491</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>246</v>
@@ -5057,19 +5057,19 @@
         <v>670119</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>662948</v>
+        <v>663136</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>672936</v>
+        <v>672947</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9934465811807686</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9828149813783454</v>
+        <v>0.9830935975810813</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9976226965684375</v>
+        <v>0.997639054406916</v>
       </c>
     </row>
     <row r="12">
@@ -5161,19 +5161,19 @@
         <v>4261</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1110</v>
+        <v>1068</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9868</v>
+        <v>10746</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01093691203214523</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002849069316208275</v>
+        <v>0.002741952516223499</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02532951306686897</v>
+        <v>0.02758479328567418</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -5182,19 +5182,19 @@
         <v>3181</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9494</v>
+        <v>8615</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01211017393543663</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003767958137809614</v>
+        <v>0.003773073014763094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03614877205910588</v>
+        <v>0.03280259448625023</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -5203,19 +5203,19 @@
         <v>7441</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3180</v>
+        <v>3158</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14719</v>
+        <v>14109</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01140936170759749</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004875223246565758</v>
+        <v>0.004842455277756792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02256757325492751</v>
+        <v>0.02163217225281247</v>
       </c>
     </row>
     <row r="14">
@@ -5232,19 +5232,19 @@
         <v>385315</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>379708</v>
+        <v>378830</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>388466</v>
+        <v>388508</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9890630879678548</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.974670486933131</v>
+        <v>0.9724152067143258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9971509306837917</v>
+        <v>0.9972580474837766</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>237</v>
@@ -5253,19 +5253,19 @@
         <v>259450</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>253137</v>
+        <v>254016</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>261641</v>
+        <v>261640</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9878898260645633</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9638512279408944</v>
+        <v>0.9671974055137499</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9962320418621904</v>
+        <v>0.9962269269852368</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>584</v>
@@ -5274,19 +5274,19 @@
         <v>644766</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>637488</v>
+        <v>638098</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>649027</v>
+        <v>649049</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9885906382924025</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9774324267450726</v>
+        <v>0.9783678277471873</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9951247767534342</v>
+        <v>0.9951575447222432</v>
       </c>
     </row>
     <row r="15">
@@ -5378,19 +5378,19 @@
         <v>7966</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3362</v>
+        <v>3404</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15730</v>
+        <v>15065</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02818303768834369</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01189313223828308</v>
+        <v>0.01204310467277919</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05565215940020336</v>
+        <v>0.05329944802345566</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5412,19 +5412,19 @@
         <v>7966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3416</v>
+        <v>3394</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15843</v>
+        <v>15940</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01946858329270259</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00834969530476125</v>
+        <v>0.008293631371134456</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03871915613890081</v>
+        <v>0.03895738689891366</v>
       </c>
     </row>
     <row r="17">
@@ -5441,19 +5441,19 @@
         <v>274685</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>266921</v>
+        <v>267586</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>279289</v>
+        <v>279247</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9718169623116563</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9443478405997967</v>
+        <v>0.9467005519765443</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9881068677617169</v>
+        <v>0.9879568953272209</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>110</v>
@@ -5475,19 +5475,19 @@
         <v>401205</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>393328</v>
+        <v>393231</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>405755</v>
+        <v>405777</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9805314167072974</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9612808438610992</v>
+        <v>0.9610426131010863</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9916503046952387</v>
+        <v>0.9917063686288655</v>
       </c>
     </row>
     <row r="18">
@@ -5579,19 +5579,19 @@
         <v>3043</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7420</v>
+        <v>8963</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01742367681966931</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005237354152934941</v>
+        <v>0.005246710029561044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04248523065086764</v>
+        <v>0.05132342142628663</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -5613,19 +5613,19 @@
         <v>3043</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8299</v>
+        <v>8073</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0125612330497722</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003788017408955435</v>
+        <v>0.00375569709266873</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03425886895915479</v>
+        <v>0.03332649252302124</v>
       </c>
     </row>
     <row r="20">
@@ -5642,19 +5642,19 @@
         <v>171596</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>167219</v>
+        <v>165676</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>173724</v>
+        <v>173723</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9825763231803307</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9575147693491326</v>
+        <v>0.948676578573714</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9947626458470651</v>
+        <v>0.994753289970439</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -5676,19 +5676,19 @@
         <v>239199</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>233943</v>
+        <v>234169</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>241324</v>
+        <v>241332</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9874387669502278</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9657411310408452</v>
+        <v>0.9666735074769786</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9962119825910446</v>
+        <v>0.9962443029073312</v>
       </c>
     </row>
     <row r="21">
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5306</v>
+        <v>6204</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01934880324444364</v>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0569732105588911</v>
+        <v>0.06660615655423988</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6873</v>
+        <v>5622</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01389313194904624</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05298424990403496</v>
+        <v>0.04334327239646871</v>
       </c>
     </row>
     <row r="23">
@@ -5843,7 +5843,7 @@
         <v>91337</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>87833</v>
+        <v>86935</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>93139</v>
@@ -5852,7 +5852,7 @@
         <v>0.9806511967555563</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9430267894411086</v>
+        <v>0.9333938434457602</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         <v>127911</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>122840</v>
+        <v>124091</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>129713</v>
@@ -5886,7 +5886,7 @@
         <v>0.9861068680509537</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9470157500959669</v>
+        <v>0.9566567276035314</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -5981,19 +5981,19 @@
         <v>31963</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21496</v>
+        <v>21771</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43982</v>
+        <v>43884</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01613304823384628</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0108497081337066</v>
+        <v>0.01098864439370814</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0221994370134335</v>
+        <v>0.02214979907232317</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -6002,19 +6002,19 @@
         <v>6210</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2164</v>
+        <v>2091</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12992</v>
+        <v>12365</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005494382015336209</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001914915120943003</v>
+        <v>0.001850456403285145</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01149496371059047</v>
+        <v>0.0109407341170745</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -6023,19 +6023,19 @@
         <v>38173</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27058</v>
+        <v>27384</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52694</v>
+        <v>52755</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01226862124682</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008696398831012439</v>
+        <v>0.00880114899556053</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01693567000448033</v>
+        <v>0.01695520910173678</v>
       </c>
     </row>
     <row r="26">
@@ -6052,19 +6052,19 @@
         <v>1949273</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1937254</v>
+        <v>1937352</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1959740</v>
+        <v>1959465</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9838669517661537</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9778005629865666</v>
+        <v>0.9778502009276769</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9891502918662934</v>
+        <v>0.9890113556062919</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1075</v>
@@ -6073,19 +6073,19 @@
         <v>1124004</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1117222</v>
+        <v>1117849</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1128050</v>
+        <v>1128123</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9945056179846637</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9885050362894087</v>
+        <v>0.9890592658829256</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9980850848790567</v>
+        <v>0.9981495435967148</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2918</v>
@@ -6094,19 +6094,19 @@
         <v>3073277</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3058756</v>
+        <v>3058695</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3084392</v>
+        <v>3084066</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.98773137875318</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9830643299955196</v>
+        <v>0.9830447908982629</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9913036011689874</v>
+        <v>0.9911988510044395</v>
       </c>
     </row>
     <row r="27">
@@ -6454,19 +6454,19 @@
         <v>6178</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1736</v>
+        <v>1638</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16045</v>
+        <v>15775</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0547499112809215</v>
+        <v>0.05474991128092151</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01538273729620758</v>
+        <v>0.0145161810028907</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1421924310589262</v>
+        <v>0.139795426941162</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6475,19 +6475,19 @@
         <v>6178</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1700</v>
+        <v>1658</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16513</v>
+        <v>18148</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02213678268968044</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006091582198108915</v>
+        <v>0.005939809590593862</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05916930469827656</v>
+        <v>0.06502612673214477</v>
       </c>
     </row>
     <row r="5">
@@ -6517,19 +6517,19 @@
         <v>106663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>96796</v>
+        <v>97066</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111105</v>
+        <v>111203</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9452500887190785</v>
+        <v>0.9452500887190786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.857807568941074</v>
+        <v>0.860204573058838</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9846172627037925</v>
+        <v>0.9854838189971094</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>134</v>
@@ -6538,19 +6538,19 @@
         <v>272906</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>262571</v>
+        <v>260936</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>277384</v>
+        <v>277426</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9778632173103197</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9408306953017237</v>
+        <v>0.9349738732678556</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.993908417801891</v>
+        <v>0.9940601904094061</v>
       </c>
     </row>
     <row r="6">
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4590</v>
+        <v>4924</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005627431124805013</v>
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03000217531788303</v>
+        <v>0.03218697742883228</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4330</v>
+        <v>4368</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002139236453273586</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01075886929959442</v>
+        <v>0.01085440406526924</v>
       </c>
     </row>
     <row r="8">
@@ -6718,7 +6718,7 @@
         <v>152130</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>148401</v>
+        <v>148067</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>152991</v>
@@ -6727,7 +6727,7 @@
         <v>0.9943725688751951</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9699978246821138</v>
+        <v>0.967813022571168</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -6739,16 +6739,16 @@
         <v>401594</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>398125</v>
+        <v>398087</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>402455</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9978607635467266</v>
+        <v>0.9978607635467263</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9892411307004056</v>
+        <v>0.9891455959347308</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -6843,19 +6843,19 @@
         <v>3465</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10043</v>
+        <v>10525</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01107708254690109</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003622888465962322</v>
+        <v>0.003631391741700345</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03210880160639919</v>
+        <v>0.0336500077097294</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -6867,16 +6867,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4366</v>
+        <v>4995</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.007550187288042731</v>
+        <v>0.007550187288042729</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02569144309668635</v>
+        <v>0.02939164914000684</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -6885,19 +6885,19 @@
         <v>4748</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1290</v>
+        <v>1601</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10951</v>
+        <v>10197</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009835479428920843</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002673321522239314</v>
+        <v>0.003317248048161235</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02268510965707666</v>
+        <v>0.02112307551718046</v>
       </c>
     </row>
     <row r="11">
@@ -6914,19 +6914,19 @@
         <v>309319</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302741</v>
+        <v>302259</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311651</v>
+        <v>311648</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.988922917453099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9678911983935991</v>
+        <v>0.9663499922902703</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9963771115340375</v>
+        <v>0.9963686082582999</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>227</v>
@@ -6935,16 +6935,16 @@
         <v>168653</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>165570</v>
+        <v>164941</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>169936</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9924498127119573</v>
+        <v>0.9924498127119572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9743085569033136</v>
+        <v>0.9706083508599933</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -6956,19 +6956,19 @@
         <v>477972</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>471769</v>
+        <v>472523</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>481430</v>
+        <v>481119</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9901645205710792</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9773148903429234</v>
+        <v>0.9788769244828195</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9973266784777607</v>
+        <v>0.9966827519518388</v>
       </c>
     </row>
     <row r="12">
@@ -7060,19 +7060,19 @@
         <v>4035</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>927</v>
+        <v>1129</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10109</v>
+        <v>9281</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0114059219327547</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002620515578295508</v>
+        <v>0.003190399593355021</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02857764069654474</v>
+        <v>0.0262343407361985</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -7094,19 +7094,19 @@
         <v>4035</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1150</v>
+        <v>1123</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9591</v>
+        <v>8997</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.007123021402244147</v>
+        <v>0.007123021402244148</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0020292847014256</v>
+        <v>0.001983329036768851</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01693180804593351</v>
+        <v>0.01588322183843258</v>
       </c>
     </row>
     <row r="14">
@@ -7123,19 +7123,19 @@
         <v>349720</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>343646</v>
+        <v>344474</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>352828</v>
+        <v>352626</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9885940780672454</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9714223593034548</v>
+        <v>0.9737656592638014</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9973794844217045</v>
+        <v>0.996809600406645</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>324</v>
@@ -7157,19 +7157,19 @@
         <v>562424</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>556868</v>
+        <v>557462</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>565309</v>
+        <v>565336</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9928769785977558</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9830681919540663</v>
+        <v>0.9841167781615674</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9979707152985745</v>
+        <v>0.9980166709632312</v>
       </c>
     </row>
     <row r="15">
@@ -7261,19 +7261,19 @@
         <v>6741</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3176</v>
+        <v>3024</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13331</v>
+        <v>12485</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02401910536570331</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01131818553113542</v>
+        <v>0.01077671442319169</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04750138745130501</v>
+        <v>0.04448604340964209</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -7282,19 +7282,19 @@
         <v>2408</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>685</v>
+        <v>614</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6053</v>
+        <v>5525</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0162740985251949</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004629960229519782</v>
+        <v>0.004149033813571815</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04090711681616739</v>
+        <v>0.03734048313329288</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -7303,19 +7303,19 @@
         <v>9149</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5150</v>
+        <v>4928</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15945</v>
+        <v>16322</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0213454690316825</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01201608495170563</v>
+        <v>0.01149700584667893</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03720153744148652</v>
+        <v>0.03808197829186061</v>
       </c>
     </row>
     <row r="17">
@@ -7332,19 +7332,19 @@
         <v>273906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>267316</v>
+        <v>268162</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>277471</v>
+        <v>277623</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9759808946342966</v>
+        <v>0.9759808946342968</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9524986125486956</v>
+        <v>0.9555139565903579</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9886818144688647</v>
+        <v>0.9892232855768085</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>236</v>
@@ -7353,19 +7353,19 @@
         <v>145550</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141905</v>
+        <v>142433</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>147273</v>
+        <v>147344</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.983725901474805</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9590928831838325</v>
+        <v>0.9626595168667074</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9953700397704802</v>
+        <v>0.9958509661864283</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>533</v>
@@ -7374,19 +7374,19 @@
         <v>419456</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>412660</v>
+        <v>412283</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423455</v>
+        <v>423677</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9786545309683176</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9627984625585138</v>
+        <v>0.9619180217081396</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9879839150482944</v>
+        <v>0.988502994153321</v>
       </c>
     </row>
     <row r="18">
@@ -7478,19 +7478,19 @@
         <v>3195</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1116</v>
+        <v>1098</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7251</v>
+        <v>6971</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01537195283208599</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005368454847427579</v>
+        <v>0.005280162670994862</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03488268326661829</v>
+        <v>0.03353590727210359</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2562</v>
+        <v>3090</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005745376133619521</v>
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03222307853091855</v>
+        <v>0.03886972453406042</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -7520,19 +7520,19 @@
         <v>3652</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1510</v>
+        <v>1354</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7737</v>
+        <v>7775</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01270869084912825</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005253149601797132</v>
+        <v>0.004712474580182044</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02692348920042707</v>
+        <v>0.02705285788618571</v>
       </c>
     </row>
     <row r="20">
@@ -7549,19 +7549,19 @@
         <v>204681</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>200625</v>
+        <v>200905</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>206760</v>
+        <v>206778</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9846280471679141</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9651173167333815</v>
+        <v>0.9664640927278961</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9946315451525723</v>
+        <v>0.9947198373290052</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>149</v>
@@ -7570,7 +7570,7 @@
         <v>79049</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76944</v>
+        <v>76416</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>79506</v>
@@ -7579,7 +7579,7 @@
         <v>0.9942546238663805</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9677769214690829</v>
+        <v>0.9611302754659393</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -7591,19 +7591,19 @@
         <v>283730</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>279645</v>
+        <v>279607</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>285872</v>
+        <v>286028</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9872913091508718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.973076510799573</v>
+        <v>0.9729471421138143</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9947468503982028</v>
+        <v>0.9952875254198181</v>
       </c>
     </row>
     <row r="21">
@@ -7695,19 +7695,19 @@
         <v>2448</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5896</v>
+        <v>5866</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02230694350210351</v>
+        <v>0.02230694350210352</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005145866095676083</v>
+        <v>0.005079336985402896</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05372312672127518</v>
+        <v>0.05345249700088388</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2404</v>
+        <v>2265</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01400027086642478</v>
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07806785527942155</v>
+        <v>0.07354447664209919</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -7737,19 +7737,19 @@
         <v>2879</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1077</v>
+        <v>989</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6733</v>
+        <v>6808</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02048662833745349</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007666153962395543</v>
+        <v>0.007035124315185719</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04790797793243907</v>
+        <v>0.04844295807414662</v>
       </c>
     </row>
     <row r="23">
@@ -7766,19 +7766,19 @@
         <v>107293</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>103845</v>
+        <v>103875</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109176</v>
+        <v>109184</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9776930564978964</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.946276873278725</v>
+        <v>0.9465475029991168</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.994854133904324</v>
+        <v>0.9949206630145971</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>53</v>
@@ -7787,16 +7787,16 @@
         <v>30366</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>28393</v>
+        <v>28532</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>30797</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9859997291335754</v>
+        <v>0.9859997291335753</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9219321447205783</v>
+        <v>0.926455523357901</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -7808,19 +7808,19 @@
         <v>137659</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>133805</v>
+        <v>133730</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>139461</v>
+        <v>139549</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9795133716625463</v>
+        <v>0.9795133716625464</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9520920220675607</v>
+        <v>0.9515570419258534</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9923338460376044</v>
+        <v>0.9929648756848144</v>
       </c>
     </row>
     <row r="24">
@@ -7912,19 +7912,19 @@
         <v>19884</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13036</v>
+        <v>12348</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29287</v>
+        <v>29638</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01183210568081937</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007756922608885372</v>
+        <v>0.007347989404332811</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01742727797994687</v>
+        <v>0.01763653451445413</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -7933,19 +7933,19 @@
         <v>11618</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5750</v>
+        <v>5281</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23718</v>
+        <v>21233</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01281287004242174</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006341186129824283</v>
+        <v>0.005824101523974954</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0261580429546209</v>
+        <v>0.02341685692354535</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -7954,19 +7954,19 @@
         <v>31502</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22034</v>
+        <v>21192</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44359</v>
+        <v>43969</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01217582747340473</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008516395485283866</v>
+        <v>0.008191063477085071</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01714540060837011</v>
+        <v>0.01699467884024447</v>
       </c>
     </row>
     <row r="26">
@@ -7983,19 +7983,19 @@
         <v>1660625</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1651222</v>
+        <v>1650871</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1667473</v>
+        <v>1668161</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9881678943191807</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.982572722020053</v>
+        <v>0.9823634654855458</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9922430773911146</v>
+        <v>0.9926520105956671</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1193</v>
@@ -8004,19 +8004,19 @@
         <v>895115</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>883015</v>
+        <v>885500</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>900983</v>
+        <v>901452</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9871871299575782</v>
+        <v>0.9871871299575783</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9738419570453789</v>
+        <v>0.9765831430764543</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9936588138701756</v>
+        <v>0.9941758984760249</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2756</v>
@@ -8025,19 +8025,19 @@
         <v>2555740</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2542883</v>
+        <v>2543273</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2565208</v>
+        <v>2566050</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9878241725265953</v>
+        <v>0.9878241725265952</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9828545993916299</v>
+        <v>0.9830053211597554</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9914836045147161</v>
+        <v>0.9918089365229148</v>
       </c>
     </row>
     <row r="27">
